--- a/src/output/results2.xlsx
+++ b/src/output/results2.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -346,498 +346,1056 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5232.0</v>
+        <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1242.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5243.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1218.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4541.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1397.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3974.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1974.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3606.0</v>
+        <v>0.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2011.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3529.0</v>
+        <v>3.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1832.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3202.0</v>
+        <v>8.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1637.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3001.0</v>
+        <v>13.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1552.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2963.0</v>
+        <v>18.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1448.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2887.0</v>
+        <v>25.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1457.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2764.0</v>
+        <v>34.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1330.0</v>
+        <v>34.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2770.0</v>
+        <v>42.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1273.0</v>
+        <v>42.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2875.0</v>
+        <v>61.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1303.0</v>
+        <v>60.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2783.0</v>
+        <v>85.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1264.0</v>
+        <v>82.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2643.0</v>
+        <v>109.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1194.0</v>
+        <v>100.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2702.0</v>
+        <v>137.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1205.0</v>
+        <v>126.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2742.0</v>
+        <v>176.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1152.0</v>
+        <v>162.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2525.0</v>
+        <v>221.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1090.0</v>
+        <v>201.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2721.0</v>
+        <v>269.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1162.0</v>
+        <v>244.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2541.0</v>
+        <v>322.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1153.0</v>
+        <v>292.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2565.0</v>
+        <v>388.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1096.0</v>
+        <v>348.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2605.0</v>
+        <v>456.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1109.0</v>
+        <v>402.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2546.0</v>
+        <v>508.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1115.0</v>
+        <v>436.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2558.0</v>
+        <v>584.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1074.0</v>
+        <v>500.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2526.0</v>
+        <v>647.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1063.0</v>
+        <v>531.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2559.0</v>
+        <v>710.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1039.0</v>
+        <v>565.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2527.0</v>
+        <v>773.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1061.0</v>
+        <v>605.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2536.0</v>
+        <v>841.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1071.0</v>
+        <v>651.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>187.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2627.0</v>
+        <v>920.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1105.0</v>
+        <v>701.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>216.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2528.0</v>
+        <v>992.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1052.0</v>
+        <v>732.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2546.0</v>
+        <v>1078.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1106.0</v>
+        <v>776.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>296.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3397.0</v>
+        <v>1145.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1108.0</v>
+        <v>800.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>339.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3150.0</v>
+        <v>1233.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1098.0</v>
+        <v>828.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>399.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3057.0</v>
+        <v>1322.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1183.0</v>
+        <v>852.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>463.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3108.0</v>
+        <v>1405.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1361.0</v>
+        <v>879.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>519.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4158.0</v>
+        <v>1515.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1374.0</v>
+        <v>927.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>580.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4235.0</v>
+        <v>1611.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1302.0</v>
+        <v>970.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>633.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4487.0</v>
+        <v>1754.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1525.0</v>
+        <v>1044.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>699.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5150.0</v>
+        <v>1872.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1763.0</v>
+        <v>1103.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>754.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5537.0</v>
+        <v>2031.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1814.0</v>
+        <v>1175.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>841.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4973.0</v>
+        <v>2186.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1923.0</v>
+        <v>1265.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>904.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4944.0</v>
+        <v>2378.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2234.0</v>
+        <v>1374.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>987.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6847.0</v>
+        <v>2608.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2297.0</v>
+        <v>1516.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1074.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6368.0</v>
+        <v>2847.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2281.0</v>
+        <v>1675.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1154.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6927.0</v>
+        <v>3124.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2481.0</v>
+        <v>1870.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1235.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7619.0</v>
+        <v>3421.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2792.0</v>
+        <v>2069.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1331.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8147.0</v>
+        <v>3771.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2890.0</v>
+        <v>2320.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1426.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7099.0</v>
+        <v>4155.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3016.0</v>
+        <v>2588.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1540.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6954.0</v>
+        <v>4587.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3511.0</v>
+        <v>2906.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1652.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9713.0</v>
+        <v>5074.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3491.0</v>
+        <v>3256.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>487.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1787.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8663.0</v>
+        <v>5642.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3299.0</v>
+        <v>3673.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>568.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1936.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9463.0</v>
+        <v>6271.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3642.0</v>
+        <v>4129.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>629.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2106.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10246.0</v>
+        <v>6959.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3909.0</v>
+        <v>4628.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>688.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2292.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10894.0</v>
+        <v>7670.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4002.0</v>
+        <v>5113.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>711.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2515.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9604.0</v>
+        <v>8469.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4108.0</v>
+        <v>5694.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2730.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8973.0</v>
+        <v>9317.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4585.0</v>
+        <v>6298.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>848.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2973.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12757.0</v>
+        <v>10250.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4849.0</v>
+        <v>6931.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>933.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3266.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11305.0</v>
+        <v>11204.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4660.0</v>
+        <v>7567.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>954.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3581.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11815.0</v>
+        <v>12271.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4628.0</v>
+        <v>8257.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1067.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3949.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13073.0</v>
+        <v>13378.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5093.0</v>
+        <v>8924.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1107.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4377.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13504.0</v>
+        <v>14674.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5164.0</v>
+        <v>9717.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1296.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4874.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11714.0</v>
+        <v>15999.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5390.0</v>
+        <v>10523.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1325.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5386.0</v>
       </c>
     </row>
     <row r="63">

--- a/src/output/results2.xlsx
+++ b/src/output/results2.xlsx
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>91.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>91.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.0</v>
+        <v>99.0</v>
       </c>
       <c r="B5" t="n">
-        <v>5.0</v>
+        <v>99.0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.0</v>
+        <v>112.0</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0</v>
+        <v>112.0</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13.0</v>
+        <v>117.0</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0</v>
+        <v>117.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19.0</v>
+        <v>125.0</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0</v>
+        <v>125.0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,920 +482,920 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>30.0</v>
+        <v>138.0</v>
       </c>
       <c r="B9" t="n">
-        <v>30.0</v>
+        <v>137.0</v>
       </c>
       <c r="C9" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>36.0</v>
+        <v>153.0</v>
       </c>
       <c r="B10" t="n">
-        <v>36.0</v>
+        <v>151.0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54.0</v>
+        <v>173.0</v>
       </c>
       <c r="B11" t="n">
-        <v>54.0</v>
+        <v>170.0</v>
       </c>
       <c r="C11" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63.0</v>
+        <v>192.0</v>
       </c>
       <c r="B12" t="n">
-        <v>61.0</v>
+        <v>184.0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>70.0</v>
+        <v>211.0</v>
       </c>
       <c r="B13" t="n">
-        <v>67.0</v>
+        <v>200.0</v>
       </c>
       <c r="C13" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>80.0</v>
+        <v>230.0</v>
       </c>
       <c r="B14" t="n">
-        <v>74.0</v>
+        <v>216.0</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>93.0</v>
+        <v>255.0</v>
       </c>
       <c r="B15" t="n">
-        <v>85.0</v>
+        <v>235.0</v>
       </c>
       <c r="C15" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110.0</v>
+        <v>290.0</v>
       </c>
       <c r="B16" t="n">
-        <v>100.0</v>
+        <v>264.0</v>
       </c>
       <c r="C16" t="n">
-        <v>17.0</v>
+        <v>35.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131.0</v>
+        <v>335.0</v>
       </c>
       <c r="B17" t="n">
-        <v>118.0</v>
+        <v>304.0</v>
       </c>
       <c r="C17" t="n">
-        <v>21.0</v>
+        <v>45.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>13.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>151.0</v>
+        <v>385.0</v>
       </c>
       <c r="B18" t="n">
-        <v>134.0</v>
+        <v>346.0</v>
       </c>
       <c r="C18" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" t="n">
-        <v>17.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>184.0</v>
+        <v>427.0</v>
       </c>
       <c r="B19" t="n">
-        <v>162.0</v>
+        <v>381.0</v>
       </c>
       <c r="C19" t="n">
-        <v>33.0</v>
+        <v>42.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" t="n">
-        <v>22.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>220.0</v>
+        <v>485.0</v>
       </c>
       <c r="B20" t="n">
-        <v>184.0</v>
+        <v>429.0</v>
       </c>
       <c r="C20" t="n">
-        <v>36.0</v>
+        <v>58.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E20" t="n">
-        <v>36.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>260.0</v>
+        <v>562.0</v>
       </c>
       <c r="B21" t="n">
-        <v>220.0</v>
+        <v>494.0</v>
       </c>
       <c r="C21" t="n">
-        <v>40.0</v>
+        <v>77.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E21" t="n">
-        <v>40.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>301.0</v>
+        <v>641.0</v>
       </c>
       <c r="B22" t="n">
-        <v>253.0</v>
+        <v>564.0</v>
       </c>
       <c r="C22" t="n">
-        <v>41.0</v>
+        <v>79.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E22" t="n">
-        <v>48.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>351.0</v>
+        <v>707.0</v>
       </c>
       <c r="B23" t="n">
-        <v>296.0</v>
+        <v>615.0</v>
       </c>
       <c r="C23" t="n">
-        <v>50.0</v>
+        <v>66.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" t="n">
-        <v>55.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>401.0</v>
+        <v>813.0</v>
       </c>
       <c r="B24" t="n">
-        <v>335.0</v>
+        <v>696.0</v>
       </c>
       <c r="C24" t="n">
-        <v>50.0</v>
+        <v>106.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E24" t="n">
-        <v>66.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>458.0</v>
+        <v>902.0</v>
       </c>
       <c r="B25" t="n">
-        <v>381.0</v>
+        <v>770.0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.0</v>
+        <v>89.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E25" t="n">
-        <v>77.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>514.0</v>
+        <v>1006.0</v>
       </c>
       <c r="B26" t="n">
-        <v>426.0</v>
+        <v>851.0</v>
       </c>
       <c r="C26" t="n">
-        <v>56.0</v>
+        <v>104.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E26" t="n">
-        <v>88.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>570.0</v>
+        <v>1113.0</v>
       </c>
       <c r="B27" t="n">
-        <v>469.0</v>
+        <v>934.0</v>
       </c>
       <c r="C27" t="n">
-        <v>56.0</v>
+        <v>107.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E27" t="n">
-        <v>100.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>639.0</v>
+        <v>1238.0</v>
       </c>
       <c r="B28" t="n">
-        <v>514.0</v>
+        <v>1027.0</v>
       </c>
       <c r="C28" t="n">
-        <v>69.0</v>
+        <v>125.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E28" t="n">
-        <v>124.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>703.0</v>
+        <v>1370.0</v>
       </c>
       <c r="B29" t="n">
-        <v>560.0</v>
+        <v>1124.0</v>
       </c>
       <c r="C29" t="n">
-        <v>64.0</v>
+        <v>132.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E29" t="n">
-        <v>142.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>782.0</v>
+        <v>1498.0</v>
       </c>
       <c r="B30" t="n">
-        <v>611.0</v>
+        <v>1204.0</v>
       </c>
       <c r="C30" t="n">
-        <v>79.0</v>
+        <v>128.0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E30" t="n">
-        <v>169.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>855.0</v>
+        <v>1641.0</v>
       </c>
       <c r="B31" t="n">
-        <v>643.0</v>
+        <v>1294.0</v>
       </c>
       <c r="C31" t="n">
-        <v>73.0</v>
+        <v>143.0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E31" t="n">
-        <v>207.0</v>
+        <v>339.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>953.0</v>
+        <v>1783.0</v>
       </c>
       <c r="B32" t="n">
-        <v>716.0</v>
+        <v>1386.0</v>
       </c>
       <c r="C32" t="n">
-        <v>98.0</v>
+        <v>142.0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E32" t="n">
-        <v>232.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1042.0</v>
+        <v>1939.0</v>
       </c>
       <c r="B33" t="n">
-        <v>762.0</v>
+        <v>1473.0</v>
       </c>
       <c r="C33" t="n">
-        <v>89.0</v>
+        <v>156.0</v>
       </c>
       <c r="D33" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="E33" t="n">
-        <v>274.0</v>
+        <v>454.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1127.0</v>
+        <v>2124.0</v>
       </c>
       <c r="B34" t="n">
-        <v>814.0</v>
+        <v>1574.0</v>
       </c>
       <c r="C34" t="n">
-        <v>85.0</v>
+        <v>185.0</v>
       </c>
       <c r="D34" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="E34" t="n">
-        <v>306.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1222.0</v>
+        <v>2323.0</v>
       </c>
       <c r="B35" t="n">
-        <v>845.0</v>
+        <v>1696.0</v>
       </c>
       <c r="C35" t="n">
-        <v>95.0</v>
+        <v>199.0</v>
       </c>
       <c r="D35" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E35" t="n">
-        <v>367.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1329.0</v>
+        <v>2537.0</v>
       </c>
       <c r="B36" t="n">
-        <v>909.0</v>
+        <v>1836.0</v>
       </c>
       <c r="C36" t="n">
-        <v>107.0</v>
+        <v>214.0</v>
       </c>
       <c r="D36" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="E36" t="n">
-        <v>409.0</v>
+        <v>683.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1447.0</v>
+        <v>2778.0</v>
       </c>
       <c r="B37" t="n">
-        <v>983.0</v>
+        <v>1984.0</v>
       </c>
       <c r="C37" t="n">
-        <v>118.0</v>
+        <v>241.0</v>
       </c>
       <c r="D37" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="E37" t="n">
-        <v>453.0</v>
+        <v>773.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1567.0</v>
+        <v>3054.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1053.0</v>
+        <v>2160.0</v>
       </c>
       <c r="C38" t="n">
-        <v>120.0</v>
+        <v>276.0</v>
       </c>
       <c r="D38" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="E38" t="n">
-        <v>500.0</v>
+        <v>872.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1721.0</v>
+        <v>3381.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1142.0</v>
+        <v>2387.0</v>
       </c>
       <c r="C39" t="n">
-        <v>154.0</v>
+        <v>327.0</v>
       </c>
       <c r="D39" t="n">
-        <v>14.0</v>
+        <v>28.0</v>
       </c>
       <c r="E39" t="n">
-        <v>565.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1885.0</v>
+        <v>3738.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1246.0</v>
+        <v>2641.0</v>
       </c>
       <c r="C40" t="n">
-        <v>164.0</v>
+        <v>357.0</v>
       </c>
       <c r="D40" t="n">
-        <v>15.0</v>
+        <v>29.0</v>
       </c>
       <c r="E40" t="n">
-        <v>624.0</v>
+        <v>1068.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2081.0</v>
+        <v>4100.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1371.0</v>
+        <v>2886.0</v>
       </c>
       <c r="C41" t="n">
-        <v>196.0</v>
+        <v>362.0</v>
       </c>
       <c r="D41" t="n">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
       <c r="E41" t="n">
-        <v>692.0</v>
+        <v>1183.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2293.0</v>
+        <v>4504.0</v>
       </c>
       <c r="B42" t="n">
-        <v>1518.0</v>
+        <v>3174.0</v>
       </c>
       <c r="C42" t="n">
-        <v>212.0</v>
+        <v>404.0</v>
       </c>
       <c r="D42" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="E42" t="n">
-        <v>754.0</v>
+        <v>1296.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2479.0</v>
+        <v>4911.0</v>
       </c>
       <c r="B43" t="n">
-        <v>1624.0</v>
+        <v>3454.0</v>
       </c>
       <c r="C43" t="n">
-        <v>186.0</v>
+        <v>407.0</v>
       </c>
       <c r="D43" t="n">
-        <v>25.0</v>
+        <v>36.0</v>
       </c>
       <c r="E43" t="n">
-        <v>830.0</v>
+        <v>1421.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2723.0</v>
+        <v>5417.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1774.0</v>
+        <v>3815.0</v>
       </c>
       <c r="C44" t="n">
-        <v>244.0</v>
+        <v>506.0</v>
       </c>
       <c r="D44" t="n">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="E44" t="n">
-        <v>924.0</v>
+        <v>1562.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2955.0</v>
+        <v>5899.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1915.0</v>
+        <v>4119.0</v>
       </c>
       <c r="C45" t="n">
-        <v>232.0</v>
+        <v>482.0</v>
       </c>
       <c r="D45" t="n">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1014.0</v>
+        <v>1739.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3282.0</v>
+        <v>6423.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2125.0</v>
+        <v>4471.0</v>
       </c>
       <c r="C46" t="n">
-        <v>327.0</v>
+        <v>524.0</v>
       </c>
       <c r="D46" t="n">
-        <v>27.0</v>
+        <v>41.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1130.0</v>
+        <v>1911.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3605.0</v>
+        <v>7034.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2327.0</v>
+        <v>4878.0</v>
       </c>
       <c r="C47" t="n">
-        <v>323.0</v>
+        <v>611.0</v>
       </c>
       <c r="D47" t="n">
-        <v>29.0</v>
+        <v>44.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1249.0</v>
+        <v>2112.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4002.0</v>
+        <v>7731.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2607.0</v>
+        <v>5354.0</v>
       </c>
       <c r="C48" t="n">
-        <v>397.0</v>
+        <v>697.0</v>
       </c>
       <c r="D48" t="n">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1362.0</v>
+        <v>2333.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4431.0</v>
+        <v>8454.0</v>
       </c>
       <c r="B49" t="n">
-        <v>2921.0</v>
+        <v>5831.0</v>
       </c>
       <c r="C49" t="n">
-        <v>429.0</v>
+        <v>723.0</v>
       </c>
       <c r="D49" t="n">
-        <v>35.0</v>
+        <v>50.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1475.0</v>
+        <v>2573.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4924.0</v>
+        <v>9222.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3266.0</v>
+        <v>6354.0</v>
       </c>
       <c r="C50" t="n">
-        <v>493.0</v>
+        <v>768.0</v>
       </c>
       <c r="D50" t="n">
-        <v>36.0</v>
+        <v>53.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1622.0</v>
+        <v>2815.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5451.0</v>
+        <v>10021.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3630.0</v>
+        <v>6863.0</v>
       </c>
       <c r="C51" t="n">
-        <v>527.0</v>
+        <v>799.0</v>
       </c>
       <c r="D51" t="n">
-        <v>38.0</v>
+        <v>57.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1783.0</v>
+        <v>3101.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6041.0</v>
+        <v>10923.0</v>
       </c>
       <c r="B52" t="n">
-        <v>4035.0</v>
+        <v>7475.0</v>
       </c>
       <c r="C52" t="n">
-        <v>590.0</v>
+        <v>902.0</v>
       </c>
       <c r="D52" t="n">
-        <v>44.0</v>
+        <v>62.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1962.0</v>
+        <v>3386.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6685.0</v>
+        <v>11805.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4476.0</v>
+        <v>7985.0</v>
       </c>
       <c r="C53" t="n">
-        <v>644.0</v>
+        <v>882.0</v>
       </c>
       <c r="D53" t="n">
-        <v>52.0</v>
+        <v>74.0</v>
       </c>
       <c r="E53" t="n">
-        <v>2157.0</v>
+        <v>3746.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7410.0</v>
+        <v>12838.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4987.0</v>
+        <v>8638.0</v>
       </c>
       <c r="C54" t="n">
-        <v>725.0</v>
+        <v>1033.0</v>
       </c>
       <c r="D54" t="n">
-        <v>55.0</v>
+        <v>81.0</v>
       </c>
       <c r="E54" t="n">
-        <v>2368.0</v>
+        <v>4119.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8207.0</v>
+        <v>13930.0</v>
       </c>
       <c r="B55" t="n">
-        <v>5534.0</v>
+        <v>9305.0</v>
       </c>
       <c r="C55" t="n">
-        <v>797.0</v>
+        <v>1092.0</v>
       </c>
       <c r="D55" t="n">
-        <v>58.0</v>
+        <v>92.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2615.0</v>
+        <v>4533.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9075.0</v>
+        <v>15057.0</v>
       </c>
       <c r="B56" t="n">
-        <v>6134.0</v>
+        <v>9965.0</v>
       </c>
       <c r="C56" t="n">
-        <v>868.0</v>
+        <v>1127.0</v>
       </c>
       <c r="D56" t="n">
-        <v>59.0</v>
+        <v>103.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2882.0</v>
+        <v>4989.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9975.0</v>
+        <v>16213.0</v>
       </c>
       <c r="B57" t="n">
-        <v>6733.0</v>
+        <v>10641.0</v>
       </c>
       <c r="C57" t="n">
-        <v>900.0</v>
+        <v>1156.0</v>
       </c>
       <c r="D57" t="n">
-        <v>63.0</v>
+        <v>112.0</v>
       </c>
       <c r="E57" t="n">
-        <v>3179.0</v>
+        <v>5460.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11011.0</v>
+        <v>17467.0</v>
       </c>
       <c r="B58" t="n">
-        <v>7443.0</v>
+        <v>11382.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1036.0</v>
+        <v>1254.0</v>
       </c>
       <c r="D58" t="n">
-        <v>65.0</v>
+        <v>117.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3503.0</v>
+        <v>5968.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12096.0</v>
+        <v>18770.0</v>
       </c>
       <c r="B59" t="n">
-        <v>8159.0</v>
+        <v>12081.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1085.0</v>
+        <v>1303.0</v>
       </c>
       <c r="D59" t="n">
-        <v>70.0</v>
+        <v>132.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3867.0</v>
+        <v>6557.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13318.0</v>
+        <v>20141.0</v>
       </c>
       <c r="B60" t="n">
-        <v>8939.0</v>
+        <v>12836.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1222.0</v>
+        <v>1371.0</v>
       </c>
       <c r="D60" t="n">
-        <v>82.0</v>
+        <v>148.0</v>
       </c>
       <c r="E60" t="n">
-        <v>4297.0</v>
+        <v>7157.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14617.0</v>
+        <v>21651.0</v>
       </c>
       <c r="B61" t="n">
-        <v>9737.0</v>
+        <v>13654.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1299.0</v>
+        <v>1510.0</v>
       </c>
       <c r="D61" t="n">
-        <v>92.0</v>
+        <v>163.0</v>
       </c>
       <c r="E61" t="n">
-        <v>4788.0</v>
+        <v>7834.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>16040.0</v>
+        <v>23190.0</v>
       </c>
       <c r="B62" t="n">
-        <v>10644.0</v>
+        <v>14492.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1423.0</v>
+        <v>1539.0</v>
       </c>
       <c r="D62" t="n">
-        <v>99.0</v>
+        <v>178.0</v>
       </c>
       <c r="E62" t="n">
-        <v>5297.0</v>
+        <v>8520.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results2.xlsx
+++ b/src/output/results2.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
@@ -346,1056 +346,2365 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>81.0</v>
+        <v>309.0</v>
       </c>
       <c r="B1" t="n">
-        <v>81.0</v>
+        <v>308.0</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
       </c>
       <c r="E1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88.0</v>
+        <v>314.0</v>
       </c>
       <c r="B2" t="n">
-        <v>88.0</v>
+        <v>313.0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91.0</v>
+        <v>333.0</v>
       </c>
       <c r="B3" t="n">
-        <v>91.0</v>
+        <v>332.0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>93.0</v>
+        <v>361.0</v>
       </c>
       <c r="B4" t="n">
-        <v>93.0</v>
+        <v>360.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>28.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99.0</v>
+        <v>383.0</v>
       </c>
       <c r="B5" t="n">
-        <v>99.0</v>
+        <v>382.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112.0</v>
+        <v>421.0</v>
       </c>
       <c r="B6" t="n">
-        <v>112.0</v>
+        <v>420.0</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0</v>
+        <v>38.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>117.0</v>
+        <v>461.0</v>
       </c>
       <c r="B7" t="n">
-        <v>117.0</v>
+        <v>458.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>40.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>125.0</v>
+        <v>492.0</v>
       </c>
       <c r="B8" t="n">
-        <v>125.0</v>
+        <v>489.0</v>
       </c>
       <c r="C8" t="n">
-        <v>8.0</v>
+        <v>31.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>138.0</v>
+        <v>523.0</v>
       </c>
       <c r="B9" t="n">
-        <v>137.0</v>
+        <v>518.0</v>
       </c>
       <c r="C9" t="n">
-        <v>13.0</v>
+        <v>31.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>153.0</v>
+        <v>550.0</v>
       </c>
       <c r="B10" t="n">
-        <v>151.0</v>
+        <v>542.0</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>173.0</v>
+        <v>589.0</v>
       </c>
       <c r="B11" t="n">
-        <v>170.0</v>
+        <v>576.0</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>192.0</v>
+        <v>628.0</v>
       </c>
       <c r="B12" t="n">
-        <v>184.0</v>
+        <v>611.0</v>
       </c>
       <c r="C12" t="n">
-        <v>19.0</v>
+        <v>39.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>211.0</v>
+        <v>662.0</v>
       </c>
       <c r="B13" t="n">
-        <v>200.0</v>
+        <v>638.0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>230.0</v>
+        <v>702.0</v>
       </c>
       <c r="B14" t="n">
-        <v>216.0</v>
+        <v>672.0</v>
       </c>
       <c r="C14" t="n">
-        <v>19.0</v>
+        <v>40.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>255.0</v>
+        <v>748.0</v>
       </c>
       <c r="B15" t="n">
-        <v>235.0</v>
+        <v>712.0</v>
       </c>
       <c r="C15" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>290.0</v>
+        <v>813.0</v>
       </c>
       <c r="B16" t="n">
-        <v>264.0</v>
+        <v>755.0</v>
       </c>
       <c r="C16" t="n">
-        <v>35.0</v>
+        <v>65.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>25.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>335.0</v>
+        <v>889.0</v>
       </c>
       <c r="B17" t="n">
-        <v>304.0</v>
+        <v>813.0</v>
       </c>
       <c r="C17" t="n">
-        <v>45.0</v>
+        <v>76.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>30.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>385.0</v>
+        <v>947.0</v>
       </c>
       <c r="B18" t="n">
-        <v>346.0</v>
+        <v>857.0</v>
       </c>
       <c r="C18" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>37.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>427.0</v>
+        <v>1009.0</v>
       </c>
       <c r="B19" t="n">
-        <v>381.0</v>
+        <v>893.0</v>
       </c>
       <c r="C19" t="n">
-        <v>42.0</v>
+        <v>62.0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>44.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>485.0</v>
+        <v>1097.0</v>
       </c>
       <c r="B20" t="n">
-        <v>429.0</v>
+        <v>941.0</v>
       </c>
       <c r="C20" t="n">
-        <v>58.0</v>
+        <v>88.0</v>
       </c>
       <c r="D20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" t="n">
-        <v>53.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>562.0</v>
+        <v>1183.0</v>
       </c>
       <c r="B21" t="n">
-        <v>494.0</v>
+        <v>996.0</v>
       </c>
       <c r="C21" t="n">
-        <v>77.0</v>
+        <v>86.0</v>
       </c>
       <c r="D21" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" t="n">
-        <v>64.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>641.0</v>
+        <v>1272.0</v>
       </c>
       <c r="B22" t="n">
-        <v>564.0</v>
+        <v>1045.0</v>
       </c>
       <c r="C22" t="n">
-        <v>79.0</v>
+        <v>89.0</v>
       </c>
       <c r="D22" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E22" t="n">
-        <v>73.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>707.0</v>
+        <v>1374.0</v>
       </c>
       <c r="B23" t="n">
-        <v>615.0</v>
+        <v>1119.0</v>
       </c>
       <c r="C23" t="n">
-        <v>66.0</v>
+        <v>102.0</v>
       </c>
       <c r="D23" t="n">
         <v>4.0</v>
       </c>
       <c r="E23" t="n">
-        <v>88.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>813.0</v>
+        <v>1488.0</v>
       </c>
       <c r="B24" t="n">
-        <v>696.0</v>
+        <v>1198.0</v>
       </c>
       <c r="C24" t="n">
-        <v>106.0</v>
+        <v>114.0</v>
       </c>
       <c r="D24" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" t="n">
-        <v>112.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>902.0</v>
+        <v>1623.0</v>
       </c>
       <c r="B25" t="n">
-        <v>770.0</v>
+        <v>1292.0</v>
       </c>
       <c r="C25" t="n">
-        <v>89.0</v>
+        <v>135.0</v>
       </c>
       <c r="D25" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" t="n">
-        <v>127.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1006.0</v>
+        <v>1747.0</v>
       </c>
       <c r="B26" t="n">
-        <v>851.0</v>
+        <v>1375.0</v>
       </c>
       <c r="C26" t="n">
-        <v>104.0</v>
+        <v>124.0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>149.0</v>
+        <v>368.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1113.0</v>
+        <v>1872.0</v>
       </c>
       <c r="B27" t="n">
-        <v>934.0</v>
+        <v>1447.0</v>
       </c>
       <c r="C27" t="n">
-        <v>107.0</v>
+        <v>125.0</v>
       </c>
       <c r="D27" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E27" t="n">
-        <v>173.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1238.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1027.0</v>
+        <v>1544.0</v>
       </c>
       <c r="C28" t="n">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
       <c r="D28" t="n">
         <v>6.0</v>
       </c>
       <c r="E28" t="n">
-        <v>205.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1370.0</v>
+        <v>2152.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1124.0</v>
+        <v>1606.0</v>
       </c>
       <c r="C29" t="n">
-        <v>132.0</v>
+        <v>130.0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E29" t="n">
-        <v>240.0</v>
+        <v>539.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1498.0</v>
+        <v>2287.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1204.0</v>
+        <v>1681.0</v>
       </c>
       <c r="C30" t="n">
-        <v>128.0</v>
+        <v>135.0</v>
       </c>
       <c r="D30" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E30" t="n">
-        <v>288.0</v>
+        <v>597.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1641.0</v>
+        <v>2449.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1294.0</v>
+        <v>1767.0</v>
       </c>
       <c r="C31" t="n">
-        <v>143.0</v>
+        <v>162.0</v>
       </c>
       <c r="D31" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E31" t="n">
-        <v>339.0</v>
+        <v>672.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1783.0</v>
+        <v>2601.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1386.0</v>
+        <v>1842.0</v>
       </c>
       <c r="C32" t="n">
-        <v>142.0</v>
+        <v>152.0</v>
       </c>
       <c r="D32" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="E32" t="n">
-        <v>388.0</v>
+        <v>749.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1939.0</v>
+        <v>2774.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1473.0</v>
+        <v>1947.0</v>
       </c>
       <c r="C33" t="n">
-        <v>156.0</v>
+        <v>173.0</v>
       </c>
       <c r="D33" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E33" t="n">
-        <v>454.0</v>
+        <v>817.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2124.0</v>
+        <v>2952.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1574.0</v>
+        <v>2037.0</v>
       </c>
       <c r="C34" t="n">
-        <v>185.0</v>
+        <v>178.0</v>
       </c>
       <c r="D34" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="E34" t="n">
-        <v>536.0</v>
+        <v>904.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2323.0</v>
+        <v>3143.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1696.0</v>
+        <v>2142.0</v>
       </c>
       <c r="C35" t="n">
-        <v>199.0</v>
+        <v>191.0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E35" t="n">
-        <v>611.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2537.0</v>
+        <v>3350.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1836.0</v>
+        <v>2241.0</v>
       </c>
       <c r="C36" t="n">
-        <v>214.0</v>
+        <v>207.0</v>
       </c>
       <c r="D36" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="E36" t="n">
-        <v>683.0</v>
+        <v>1096.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2778.0</v>
+        <v>3569.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1984.0</v>
+        <v>2353.0</v>
       </c>
       <c r="C37" t="n">
-        <v>241.0</v>
+        <v>219.0</v>
       </c>
       <c r="D37" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="E37" t="n">
-        <v>773.0</v>
+        <v>1203.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3054.0</v>
+        <v>3798.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2160.0</v>
+        <v>2470.0</v>
       </c>
       <c r="C38" t="n">
-        <v>276.0</v>
+        <v>229.0</v>
       </c>
       <c r="D38" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="E38" t="n">
-        <v>872.0</v>
+        <v>1313.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3381.0</v>
+        <v>4079.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2387.0</v>
+        <v>2629.0</v>
       </c>
       <c r="C39" t="n">
-        <v>327.0</v>
+        <v>281.0</v>
       </c>
       <c r="D39" t="n">
-        <v>28.0</v>
+        <v>17.0</v>
       </c>
       <c r="E39" t="n">
-        <v>966.0</v>
+        <v>1433.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3738.0</v>
+        <v>4380.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2641.0</v>
+        <v>2812.0</v>
       </c>
       <c r="C40" t="n">
-        <v>357.0</v>
+        <v>301.0</v>
       </c>
       <c r="D40" t="n">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1068.0</v>
+        <v>1549.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4100.0</v>
+        <v>4677.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2886.0</v>
+        <v>2963.0</v>
       </c>
       <c r="C41" t="n">
-        <v>362.0</v>
+        <v>297.0</v>
       </c>
       <c r="D41" t="n">
-        <v>31.0</v>
+        <v>20.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1183.0</v>
+        <v>1694.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4504.0</v>
+        <v>5030.0</v>
       </c>
       <c r="B42" t="n">
-        <v>3174.0</v>
+        <v>3173.0</v>
       </c>
       <c r="C42" t="n">
-        <v>404.0</v>
+        <v>353.0</v>
       </c>
       <c r="D42" t="n">
-        <v>34.0</v>
+        <v>21.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1296.0</v>
+        <v>1836.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4911.0</v>
+        <v>5375.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3454.0</v>
+        <v>3369.0</v>
       </c>
       <c r="C43" t="n">
-        <v>407.0</v>
+        <v>345.0</v>
       </c>
       <c r="D43" t="n">
-        <v>36.0</v>
+        <v>21.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1421.0</v>
+        <v>1985.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5417.0</v>
+        <v>5776.0</v>
       </c>
       <c r="B44" t="n">
-        <v>3815.0</v>
+        <v>3620.0</v>
       </c>
       <c r="C44" t="n">
-        <v>506.0</v>
+        <v>401.0</v>
       </c>
       <c r="D44" t="n">
-        <v>40.0</v>
+        <v>22.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1562.0</v>
+        <v>2134.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5899.0</v>
+        <v>6194.0</v>
       </c>
       <c r="B45" t="n">
-        <v>4119.0</v>
+        <v>3868.0</v>
       </c>
       <c r="C45" t="n">
-        <v>482.0</v>
+        <v>418.0</v>
       </c>
       <c r="D45" t="n">
-        <v>41.0</v>
+        <v>23.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1739.0</v>
+        <v>2303.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6423.0</v>
+        <v>6632.0</v>
       </c>
       <c r="B46" t="n">
-        <v>4471.0</v>
+        <v>4143.0</v>
       </c>
       <c r="C46" t="n">
-        <v>524.0</v>
+        <v>438.0</v>
       </c>
       <c r="D46" t="n">
-        <v>41.0</v>
+        <v>26.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1911.0</v>
+        <v>2463.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7034.0</v>
+        <v>7155.0</v>
       </c>
       <c r="B47" t="n">
-        <v>4878.0</v>
+        <v>4486.0</v>
       </c>
       <c r="C47" t="n">
-        <v>611.0</v>
+        <v>523.0</v>
       </c>
       <c r="D47" t="n">
-        <v>44.0</v>
+        <v>30.0</v>
       </c>
       <c r="E47" t="n">
-        <v>2112.0</v>
+        <v>2639.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7731.0</v>
+        <v>7647.0</v>
       </c>
       <c r="B48" t="n">
-        <v>5354.0</v>
+        <v>4720.0</v>
       </c>
       <c r="C48" t="n">
-        <v>697.0</v>
+        <v>492.0</v>
       </c>
       <c r="D48" t="n">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2333.0</v>
+        <v>2893.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8454.0</v>
+        <v>8195.0</v>
       </c>
       <c r="B49" t="n">
-        <v>5831.0</v>
+        <v>5057.0</v>
       </c>
       <c r="C49" t="n">
-        <v>723.0</v>
+        <v>548.0</v>
       </c>
       <c r="D49" t="n">
-        <v>50.0</v>
+        <v>36.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2573.0</v>
+        <v>3102.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9222.0</v>
+        <v>8813.0</v>
       </c>
       <c r="B50" t="n">
-        <v>6354.0</v>
+        <v>5433.0</v>
       </c>
       <c r="C50" t="n">
-        <v>768.0</v>
+        <v>618.0</v>
       </c>
       <c r="D50" t="n">
-        <v>53.0</v>
+        <v>39.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2815.0</v>
+        <v>3341.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10021.0</v>
+        <v>9485.0</v>
       </c>
       <c r="B51" t="n">
-        <v>6863.0</v>
+        <v>5836.0</v>
       </c>
       <c r="C51" t="n">
-        <v>799.0</v>
+        <v>672.0</v>
       </c>
       <c r="D51" t="n">
-        <v>57.0</v>
+        <v>41.0</v>
       </c>
       <c r="E51" t="n">
-        <v>3101.0</v>
+        <v>3608.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10923.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B52" t="n">
-        <v>7475.0</v>
+        <v>6298.0</v>
       </c>
       <c r="C52" t="n">
-        <v>902.0</v>
+        <v>728.0</v>
       </c>
       <c r="D52" t="n">
-        <v>62.0</v>
+        <v>44.0</v>
       </c>
       <c r="E52" t="n">
-        <v>3386.0</v>
+        <v>3871.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11805.0</v>
+        <v>10985.0</v>
       </c>
       <c r="B53" t="n">
-        <v>7985.0</v>
+        <v>6758.0</v>
       </c>
       <c r="C53" t="n">
-        <v>882.0</v>
+        <v>772.0</v>
       </c>
       <c r="D53" t="n">
-        <v>74.0</v>
+        <v>46.0</v>
       </c>
       <c r="E53" t="n">
-        <v>3746.0</v>
+        <v>4181.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12838.0</v>
+        <v>11789.0</v>
       </c>
       <c r="B54" t="n">
-        <v>8638.0</v>
+        <v>7260.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1033.0</v>
+        <v>804.0</v>
       </c>
       <c r="D54" t="n">
-        <v>81.0</v>
+        <v>52.0</v>
       </c>
       <c r="E54" t="n">
-        <v>4119.0</v>
+        <v>4477.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>13930.0</v>
+        <v>12693.0</v>
       </c>
       <c r="B55" t="n">
-        <v>9305.0</v>
+        <v>7814.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1092.0</v>
+        <v>904.0</v>
       </c>
       <c r="D55" t="n">
-        <v>92.0</v>
+        <v>57.0</v>
       </c>
       <c r="E55" t="n">
-        <v>4533.0</v>
+        <v>4822.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15057.0</v>
+        <v>13577.0</v>
       </c>
       <c r="B56" t="n">
-        <v>9965.0</v>
+        <v>8344.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1127.0</v>
+        <v>884.0</v>
       </c>
       <c r="D56" t="n">
-        <v>103.0</v>
+        <v>60.0</v>
       </c>
       <c r="E56" t="n">
-        <v>4989.0</v>
+        <v>5173.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16213.0</v>
+        <v>14431.0</v>
       </c>
       <c r="B57" t="n">
-        <v>10641.0</v>
+        <v>8798.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1156.0</v>
+        <v>854.0</v>
       </c>
       <c r="D57" t="n">
-        <v>112.0</v>
+        <v>68.0</v>
       </c>
       <c r="E57" t="n">
-        <v>5460.0</v>
+        <v>5565.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17467.0</v>
+        <v>15415.0</v>
       </c>
       <c r="B58" t="n">
-        <v>11382.0</v>
+        <v>9369.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1254.0</v>
+        <v>984.0</v>
       </c>
       <c r="D58" t="n">
-        <v>117.0</v>
+        <v>71.0</v>
       </c>
       <c r="E58" t="n">
-        <v>5968.0</v>
+        <v>5975.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18770.0</v>
+        <v>16434.0</v>
       </c>
       <c r="B59" t="n">
-        <v>12081.0</v>
+        <v>9940.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1303.0</v>
+        <v>1019.0</v>
       </c>
       <c r="D59" t="n">
-        <v>132.0</v>
+        <v>74.0</v>
       </c>
       <c r="E59" t="n">
-        <v>6557.0</v>
+        <v>6420.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20141.0</v>
+        <v>17414.0</v>
       </c>
       <c r="B60" t="n">
-        <v>12836.0</v>
+        <v>10400.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1371.0</v>
+        <v>980.0</v>
       </c>
       <c r="D60" t="n">
-        <v>148.0</v>
+        <v>81.0</v>
       </c>
       <c r="E60" t="n">
-        <v>7157.0</v>
+        <v>6933.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21651.0</v>
+        <v>18474.0</v>
       </c>
       <c r="B61" t="n">
-        <v>13654.0</v>
+        <v>10914.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1510.0</v>
+        <v>1060.0</v>
       </c>
       <c r="D61" t="n">
-        <v>163.0</v>
+        <v>87.0</v>
       </c>
       <c r="E61" t="n">
-        <v>7834.0</v>
+        <v>7473.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23190.0</v>
+        <v>19670.0</v>
       </c>
       <c r="B62" t="n">
-        <v>14492.0</v>
+        <v>11561.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1539.0</v>
+        <v>1196.0</v>
       </c>
       <c r="D62" t="n">
-        <v>178.0</v>
+        <v>95.0</v>
       </c>
       <c r="E62" t="n">
-        <v>8520.0</v>
+        <v>8014.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20948.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>12211.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1278.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8639.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>22224.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>12826.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1276.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9293.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>23627.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>13531.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1403.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9983.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>25098.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>14263.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1471.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10715.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>17154.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9984.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1039.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7049.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>18243.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10523.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1089.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7590.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19435.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>11154.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1192.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>8142.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20698.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>11801.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1263.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>8744.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>22053.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12517.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1355.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9371.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>23538.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>13329.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1485.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10032.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>25117.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>14206.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1579.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10724.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>26877.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>15182.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>11496.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>28653.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>16097.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1776.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12340.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>30604.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>17209.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13170.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32628.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>18297.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>14089.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34818.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>19533.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2190.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15028.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37124.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20832.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2306.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>16013.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39552.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>22260.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2428.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>16996.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42126.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>23772.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2574.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>18039.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>44913.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>25278.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2787.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>19300.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>47886.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>26913.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2973.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>20620.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>51100.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>28765.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3214.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>21959.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>54331.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>30433.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3231.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>23497.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>57864.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>32394.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3533.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>427.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>25043.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>61646.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>34492.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3782.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>26699.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65523.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>36551.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3877.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>28498.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>69510.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>38599.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3987.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>30410.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>73678.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>40719.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4168.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>32428.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>78113.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>42957.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4435.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>34594.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>82578.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>45086.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4465.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>589.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>36903.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>87386.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>47395.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4808.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>632.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>39359.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92293.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>49732.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4907.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>666.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>41895.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>97413.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>52097.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5120.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>713.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>44603.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>102646.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>54350.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5233.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>751.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>47545.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>108073.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>56583.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5427.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>50691.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>113577.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>58880.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5504.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>835.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>53862.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>119167.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>61035.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5590.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>893.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>57239.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>124781.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>63028.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5614.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>942.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>60811.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>130555.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>65024.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5774.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>988.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>64543.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>136356.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>66829.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5801.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1049.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>68478.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>142139.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>68366.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5783.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1115.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>72658.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>147866.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>69752.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5727.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1176.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>76938.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>153604.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>70984.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5738.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1248.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>81372.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>159369.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>72171.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5765.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1324.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>85874.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>165255.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>73230.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5886.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1395.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>90630.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>171195.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>74273.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5940.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1459.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>95463.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>177171.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>75121.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5976.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1525.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>100525.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>183090.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>75904.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5919.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1609.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>105577.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>189164.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>76768.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6074.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1694.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>110702.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>195317.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>77649.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6153.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1782.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>115886.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>201429.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>78185.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6112.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>121381.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>207686.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>79044.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6257.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>126694.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>213927.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>79686.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6241.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>132226.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>220087.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>80256.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6160.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2090.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>137741.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>226297.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>80885.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6210.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2149.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>143263.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>232597.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>81514.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6300.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2232.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>148851.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>238978.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>82146.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6381.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2301.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>154531.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>245181.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>82480.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6203.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2376.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>160325.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>251574.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>83044.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6393.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2461.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>166069.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>258055.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>83653.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6481.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2534.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>171868.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>264252.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>83907.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6197.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2616.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>177729.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>270433.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>84089.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6181.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2699.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>183645.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>276744.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>84388.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6311.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2784.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>189572.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>283037.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>84734.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6293.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2879.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>195424.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>289272.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>84811.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6235.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2977.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>201484.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>295472.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>84756.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6200.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3064.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>207652.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>301509.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>84602.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6037.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3152.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>213755.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>307632.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>84533.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6123.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3252.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>219847.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>313760.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>84412.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6128.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3336.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>226012.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>319723.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>83982.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5963.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3428.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>232313.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>325717.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>83813.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5994.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3530.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>238374.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>331607.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>83452.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5890.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3610.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>244545.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>337553.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>83057.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5946.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3696.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>250800.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>343440.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>82750.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5887.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3782.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>256908.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>349176.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>82229.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5736.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3863.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>263084.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>354859.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>81630.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5683.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3950.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>269279.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>360422.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>80963.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5563.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4042.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>275417.0</v>
       </c>
     </row>
   </sheetData>
